--- a/完成データ/グループ別総合計2020-8-28.xlsx
+++ b/完成データ/グループ別総合計2020-8-28.xlsx
@@ -512,72 +512,72 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
+          <t>売り</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
           <t>買い</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>差引</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>売り</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>買い</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>差引</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>売り</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>買い</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>差引</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>売り</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>買い</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>差引</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>売り</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>買い</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>売り</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>差引</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>買い</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>売り</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>差引</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>買い</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>売り</t>
         </is>
       </c>
       <c r="Q2" s="1" t="inlineStr">
@@ -608,46 +608,46 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>15237</v>
+      </c>
+      <c r="D4" t="n">
         <v>9298</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15237</v>
       </c>
       <c r="E4" t="n">
         <v>1288</v>
       </c>
       <c r="F4" t="n">
+        <v>4648</v>
+      </c>
+      <c r="G4" t="n">
         <v>4428.6</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4648</v>
       </c>
       <c r="H4" t="n">
         <v>-219.3999999999996</v>
       </c>
       <c r="I4" t="n">
+        <v>13386</v>
+      </c>
+      <c r="J4" t="n">
         <v>10829</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13386</v>
       </c>
       <c r="K4" t="n">
         <v>-2557</v>
       </c>
       <c r="L4" t="n">
+        <v>11313</v>
+      </c>
+      <c r="M4" t="n">
         <v>12856.6</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11313</v>
       </c>
       <c r="N4" t="n">
         <v>1543.600000000001</v>
       </c>
       <c r="O4" t="n">
+        <v>16082.5</v>
+      </c>
+      <c r="P4" t="n">
         <v>16462.1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16082.5</v>
       </c>
       <c r="Q4" t="n">
         <v>379.6000000000004</v>
@@ -663,46 +663,46 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>58260</v>
+      </c>
+      <c r="D5" t="n">
         <v>60875</v>
-      </c>
-      <c r="D5" t="n">
-        <v>58260</v>
       </c>
       <c r="E5" t="n">
         <v>2127</v>
       </c>
       <c r="F5" t="n">
+        <v>71377.70000000001</v>
+      </c>
+      <c r="G5" t="n">
         <v>72380.7</v>
-      </c>
-      <c r="G5" t="n">
-        <v>71377.70000000001</v>
       </c>
       <c r="H5" t="n">
         <v>1002.999999999999</v>
       </c>
       <c r="I5" t="n">
+        <v>61699</v>
+      </c>
+      <c r="J5" t="n">
         <v>66591</v>
-      </c>
-      <c r="J5" t="n">
-        <v>61699</v>
       </c>
       <c r="K5" t="n">
         <v>4892</v>
       </c>
       <c r="L5" t="n">
+        <v>128039.7</v>
+      </c>
+      <c r="M5" t="n">
         <v>131441.7</v>
-      </c>
-      <c r="M5" t="n">
-        <v>128039.7</v>
       </c>
       <c r="N5" t="n">
         <v>3402.00000000001</v>
       </c>
       <c r="O5" t="n">
+        <v>157939.7</v>
+      </c>
+      <c r="P5" t="n">
         <v>163283.7</v>
-      </c>
-      <c r="P5" t="n">
-        <v>157939.7</v>
       </c>
       <c r="Q5" t="n">
         <v>5344.000000000011</v>
@@ -718,46 +718,46 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>7779</v>
+      </c>
+      <c r="D6" t="n">
         <v>6096</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7779</v>
       </c>
       <c r="E6" t="n">
         <v>-165</v>
       </c>
       <c r="F6" t="n">
+        <v>1353</v>
+      </c>
+      <c r="G6" t="n">
         <v>1626.1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1353</v>
       </c>
       <c r="H6" t="n">
         <v>273.1000000000001</v>
       </c>
       <c r="I6" t="n">
+        <v>9230</v>
+      </c>
+      <c r="J6" t="n">
         <v>6630</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9230</v>
       </c>
       <c r="K6" t="n">
         <v>-2600</v>
       </c>
       <c r="L6" t="n">
+        <v>7226</v>
+      </c>
+      <c r="M6" t="n">
         <v>4572.7</v>
-      </c>
-      <c r="M6" t="n">
-        <v>7226</v>
       </c>
       <c r="N6" t="n">
         <v>-1044.1</v>
       </c>
       <c r="O6" t="n">
+        <v>10714.5</v>
+      </c>
+      <c r="P6" t="n">
         <v>5946.7</v>
-      </c>
-      <c r="P6" t="n">
-        <v>10714.5</v>
       </c>
       <c r="Q6" t="n">
         <v>-869.1000000000004</v>
@@ -773,46 +773,46 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>10001</v>
+      </c>
+      <c r="D7" t="n">
         <v>11820</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10001</v>
       </c>
       <c r="E7" t="n">
         <v>1793</v>
       </c>
       <c r="F7" t="n">
+        <v>24662.3</v>
+      </c>
+      <c r="G7" t="n">
         <v>24573.1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>24662.3</v>
       </c>
       <c r="H7" t="n">
         <v>-89.00000000000017</v>
       </c>
       <c r="I7" t="n">
+        <v>1369</v>
+      </c>
+      <c r="J7" t="n">
         <v>1873</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1369</v>
       </c>
       <c r="K7" t="n">
         <v>504</v>
       </c>
       <c r="L7" t="n">
+        <v>33058.2</v>
+      </c>
+      <c r="M7" t="n">
         <v>35604.2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>33058.2</v>
       </c>
       <c r="N7" t="n">
         <v>1731.8</v>
       </c>
       <c r="O7" t="n">
+        <v>19371.4</v>
+      </c>
+      <c r="P7" t="n">
         <v>20040.4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>19371.4</v>
       </c>
       <c r="Q7" t="n">
         <v>668.9999999999995</v>
@@ -826,46 +826,46 @@
       </c>
       <c r="B8" s="1" t="inlineStr"/>
       <c r="C8" t="n">
+        <v>91277</v>
+      </c>
+      <c r="D8" t="n">
         <v>88089</v>
-      </c>
-      <c r="D8" t="n">
-        <v>91277</v>
       </c>
       <c r="E8" t="n">
         <v>5043</v>
       </c>
       <c r="F8" t="n">
+        <v>102041</v>
+      </c>
+      <c r="G8" t="n">
         <v>103008.5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>102041</v>
       </c>
       <c r="H8" t="n">
         <v>967.7</v>
       </c>
       <c r="I8" t="n">
+        <v>85684</v>
+      </c>
+      <c r="J8" t="n">
         <v>85923</v>
-      </c>
-      <c r="J8" t="n">
-        <v>85684</v>
       </c>
       <c r="K8" t="n">
         <v>239</v>
       </c>
       <c r="L8" t="n">
+        <v>179636.9</v>
+      </c>
+      <c r="M8" t="n">
         <v>184475.2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>179636.9</v>
       </c>
       <c r="N8" t="n">
         <v>5633.30000000001</v>
       </c>
       <c r="O8" t="n">
+        <v>204108.1</v>
+      </c>
+      <c r="P8" t="n">
         <v>205732.9</v>
-      </c>
-      <c r="P8" t="n">
-        <v>204108.1</v>
       </c>
       <c r="Q8" t="n">
         <v>5523.500000000009</v>
@@ -883,46 +883,46 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>73497</v>
+      </c>
+      <c r="D9" t="n">
         <v>70173</v>
-      </c>
-      <c r="D9" t="n">
-        <v>73497</v>
       </c>
       <c r="E9" t="n">
         <v>3415</v>
       </c>
       <c r="F9" t="n">
+        <v>76025.70000000001</v>
+      </c>
+      <c r="G9" t="n">
         <v>76809.3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>76025.70000000001</v>
       </c>
       <c r="H9" t="n">
         <v>783.5999999999998</v>
       </c>
       <c r="I9" t="n">
+        <v>75085</v>
+      </c>
+      <c r="J9" t="n">
         <v>77420</v>
-      </c>
-      <c r="J9" t="n">
-        <v>75085</v>
       </c>
       <c r="K9" t="n">
         <v>2335</v>
       </c>
       <c r="L9" t="n">
+        <v>139352.7</v>
+      </c>
+      <c r="M9" t="n">
         <v>144298.3</v>
-      </c>
-      <c r="M9" t="n">
-        <v>139352.7</v>
       </c>
       <c r="N9" t="n">
         <v>4945.60000000001</v>
       </c>
       <c r="O9" t="n">
+        <v>174022.2</v>
+      </c>
+      <c r="P9" t="n">
         <v>179745.8</v>
-      </c>
-      <c r="P9" t="n">
-        <v>174022.2</v>
       </c>
       <c r="Q9" t="n">
         <v>5723.600000000011</v>
@@ -940,46 +940,46 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>17780</v>
+      </c>
+      <c r="D10" t="n">
         <v>17916</v>
-      </c>
-      <c r="D10" t="n">
-        <v>17780</v>
       </c>
       <c r="E10" t="n">
         <v>1628</v>
       </c>
       <c r="F10" t="n">
+        <v>26015.3</v>
+      </c>
+      <c r="G10" t="n">
         <v>26199.2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>26015.3</v>
       </c>
       <c r="H10" t="n">
         <v>184.1</v>
       </c>
       <c r="I10" t="n">
+        <v>10599</v>
+      </c>
+      <c r="J10" t="n">
         <v>8503</v>
-      </c>
-      <c r="J10" t="n">
-        <v>10599</v>
       </c>
       <c r="K10" t="n">
         <v>-2096</v>
       </c>
       <c r="L10" t="n">
+        <v>40284.2</v>
+      </c>
+      <c r="M10" t="n">
         <v>40176.9</v>
-      </c>
-      <c r="M10" t="n">
-        <v>40284.2</v>
       </c>
       <c r="N10" t="n">
         <v>687.6999999999998</v>
       </c>
       <c r="O10" t="n">
+        <v>30085.9</v>
+      </c>
+      <c r="P10" t="n">
         <v>25987.1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>30085.9</v>
       </c>
       <c r="Q10" t="n">
         <v>-200.1000000000008</v>
